--- a/Notebooks/beta_good2_gauss3.xlsx
+++ b/Notebooks/beta_good2_gauss3.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="94">
   <si>
     <t>phase</t>
   </si>
@@ -81,6 +81,54 @@
   </si>
   <si>
     <t>ne_beta1m3</t>
+  </si>
+  <si>
+    <t>he_beta1_opt</t>
+  </si>
+  <si>
+    <t>he_beta2_opt</t>
+  </si>
+  <si>
+    <t>he_beta3_opt</t>
+  </si>
+  <si>
+    <t>he_beta4_opt</t>
+  </si>
+  <si>
+    <t>he_beta1_err</t>
+  </si>
+  <si>
+    <t>he_beta2_err</t>
+  </si>
+  <si>
+    <t>he_beta3_err</t>
+  </si>
+  <si>
+    <t>he_beta4_err</t>
+  </si>
+  <si>
+    <t>ne_beta1_opt</t>
+  </si>
+  <si>
+    <t>ne_beta2_opt</t>
+  </si>
+  <si>
+    <t>ne_beta3_opt</t>
+  </si>
+  <si>
+    <t>ne_beta4_opt</t>
+  </si>
+  <si>
+    <t>ne_beta1_err</t>
+  </si>
+  <si>
+    <t>ne_beta2_err</t>
+  </si>
+  <si>
+    <t>ne_beta3_err</t>
+  </si>
+  <si>
+    <t>ne_beta4_err</t>
   </si>
   <si>
     <t>he_beta1_amp_err</t>
@@ -606,13 +654,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W12"/>
+  <dimension ref="A1:AM12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:23">
+    <row r="1" spans="1:39">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -679,8 +727,56 @@
       <c r="W1" s="1" t="s">
         <v>21</v>
       </c>
+      <c r="X1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>37</v>
+      </c>
     </row>
-    <row r="2" spans="1:23">
+    <row r="2" spans="1:39">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -750,8 +846,56 @@
       <c r="W2">
         <v>0.3180400087651205</v>
       </c>
+      <c r="X2">
+        <v>0.2303369152318839</v>
+      </c>
+      <c r="Y2">
+        <v>0.8119733954076405</v>
+      </c>
+      <c r="Z2">
+        <v>0.4632945935281905</v>
+      </c>
+      <c r="AA2">
+        <v>0.9828243046141045</v>
+      </c>
+      <c r="AB2">
+        <v>0.03521173857543195</v>
+      </c>
+      <c r="AC2">
+        <v>0.04960701158519783</v>
+      </c>
+      <c r="AD2">
+        <v>0.04895676373782606</v>
+      </c>
+      <c r="AE2">
+        <v>0.05921308206521127</v>
+      </c>
+      <c r="AF2">
+        <v>0.1896714777692846</v>
+      </c>
+      <c r="AG2">
+        <v>-0.1304234423415812</v>
+      </c>
+      <c r="AH2">
+        <v>0.04584238207094469</v>
+      </c>
+      <c r="AI2">
+        <v>0.05911214877885158</v>
+      </c>
+      <c r="AJ2">
+        <v>0.01274594221447612</v>
+      </c>
+      <c r="AK2">
+        <v>0.01668608901795437</v>
+      </c>
+      <c r="AL2">
+        <v>0.01735101340441096</v>
+      </c>
+      <c r="AM2">
+        <v>0.01983109752452807</v>
+      </c>
     </row>
-    <row r="3" spans="1:23">
+    <row r="3" spans="1:39">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -821,8 +965,56 @@
       <c r="W3">
         <v>0.4015773379016785</v>
       </c>
+      <c r="X3">
+        <v>-0.03012458819371898</v>
+      </c>
+      <c r="Y3">
+        <v>0.8250563588640976</v>
+      </c>
+      <c r="Z3">
+        <v>-0.06189235157483897</v>
+      </c>
+      <c r="AA3">
+        <v>0.9582534448241412</v>
+      </c>
+      <c r="AB3">
+        <v>0.03260334883820176</v>
+      </c>
+      <c r="AC3">
+        <v>0.04658162870313017</v>
+      </c>
+      <c r="AD3">
+        <v>0.04474281987802754</v>
+      </c>
+      <c r="AE3">
+        <v>0.05526258960465341</v>
+      </c>
+      <c r="AF3">
+        <v>0.05257815376905647</v>
+      </c>
+      <c r="AG3">
+        <v>-0.1231086630957186</v>
+      </c>
+      <c r="AH3">
+        <v>-0.08462712866495486</v>
+      </c>
+      <c r="AI3">
+        <v>0.07257148802423746</v>
+      </c>
+      <c r="AJ3">
+        <v>0.01580123711355777</v>
+      </c>
+      <c r="AK3">
+        <v>0.02083554278546272</v>
+      </c>
+      <c r="AL3">
+        <v>0.02168421525778268</v>
+      </c>
+      <c r="AM3">
+        <v>0.02477265084664302</v>
+      </c>
     </row>
-    <row r="4" spans="1:23">
+    <row r="4" spans="1:39">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -892,8 +1084,56 @@
       <c r="W4">
         <v>0.1259373691917983</v>
       </c>
+      <c r="X4">
+        <v>-0.3100552968074747</v>
+      </c>
+      <c r="Y4">
+        <v>0.8790588221112837</v>
+      </c>
+      <c r="Z4">
+        <v>-0.5265608465781486</v>
+      </c>
+      <c r="AA4">
+        <v>1.025681510265131</v>
+      </c>
+      <c r="AB4">
+        <v>0.0260749832068067</v>
+      </c>
+      <c r="AC4">
+        <v>0.03684694785947318</v>
+      </c>
+      <c r="AD4">
+        <v>0.03616935251113901</v>
+      </c>
+      <c r="AE4">
+        <v>0.0437280859434106</v>
+      </c>
+      <c r="AF4">
+        <v>-0.1844533696583744</v>
+      </c>
+      <c r="AG4">
+        <v>-0.1028888330137132</v>
+      </c>
+      <c r="AH4">
+        <v>-0.05645210012185851</v>
+      </c>
+      <c r="AI4">
+        <v>0.03003826795233839</v>
+      </c>
+      <c r="AJ4">
+        <v>0.01765159464892612</v>
+      </c>
+      <c r="AK4">
+        <v>0.02309897062568117</v>
+      </c>
+      <c r="AL4">
+        <v>0.02404265179175153</v>
+      </c>
+      <c r="AM4">
+        <v>0.02746907436506632</v>
+      </c>
     </row>
-    <row r="5" spans="1:23">
+    <row r="5" spans="1:39">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -963,8 +1203,56 @@
       <c r="W5">
         <v>-0.244699880355905</v>
       </c>
+      <c r="X5">
+        <v>-0.3817505671742484</v>
+      </c>
+      <c r="Y5">
+        <v>0.8932486793363658</v>
+      </c>
+      <c r="Z5">
+        <v>-0.3779513103387256</v>
+      </c>
+      <c r="AA5">
+        <v>0.9300711809744323</v>
+      </c>
+      <c r="AB5">
+        <v>0.03501410798132234</v>
+      </c>
+      <c r="AC5">
+        <v>0.04908869605353904</v>
+      </c>
+      <c r="AD5">
+        <v>0.04732125125637155</v>
+      </c>
+      <c r="AE5">
+        <v>0.05725364864771489</v>
+      </c>
+      <c r="AF5">
+        <v>-0.3157856298383602</v>
+      </c>
+      <c r="AG5">
+        <v>-0.1138290711341478</v>
+      </c>
+      <c r="AH5">
+        <v>0.08407562353972085</v>
+      </c>
+      <c r="AI5">
+        <v>-0.001722233209699745</v>
+      </c>
+      <c r="AJ5">
+        <v>0.01688214172106668</v>
+      </c>
+      <c r="AK5">
+        <v>0.021782236583616</v>
+      </c>
+      <c r="AL5">
+        <v>0.02267569720129635</v>
+      </c>
+      <c r="AM5">
+        <v>0.02589314619178982</v>
+      </c>
     </row>
-    <row r="6" spans="1:23">
+    <row r="6" spans="1:39">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1034,8 +1322,56 @@
       <c r="W6">
         <v>-0.4449407847359594</v>
       </c>
+      <c r="X6">
+        <v>-0.1789301034672548</v>
+      </c>
+      <c r="Y6">
+        <v>0.8047356234518636</v>
+      </c>
+      <c r="Z6">
+        <v>0.09228040506908995</v>
+      </c>
+      <c r="AA6">
+        <v>0.976208744311826</v>
+      </c>
+      <c r="AB6">
+        <v>0.04114317591171455</v>
+      </c>
+      <c r="AC6">
+        <v>0.05815881889319935</v>
+      </c>
+      <c r="AD6">
+        <v>0.05610071933556744</v>
+      </c>
+      <c r="AE6">
+        <v>0.06944107755923816</v>
+      </c>
+      <c r="AF6">
+        <v>-0.2491550709767125</v>
+      </c>
+      <c r="AG6">
+        <v>-0.1199310031155369</v>
+      </c>
+      <c r="AH6">
+        <v>0.2340087684605713</v>
+      </c>
+      <c r="AI6">
+        <v>0.03829083742681549</v>
+      </c>
+      <c r="AJ6">
+        <v>0.01483039533407079</v>
+      </c>
+      <c r="AK6">
+        <v>0.01929644147276807</v>
+      </c>
+      <c r="AL6">
+        <v>0.02019885046802608</v>
+      </c>
+      <c r="AM6">
+        <v>0.02293700298557831</v>
+      </c>
     </row>
-    <row r="7" spans="1:23">
+    <row r="7" spans="1:39">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1105,8 +1441,56 @@
       <c r="W7">
         <v>-0.2543939641233387</v>
       </c>
+      <c r="X7">
+        <v>0.1194011921865471</v>
+      </c>
+      <c r="Y7">
+        <v>0.8705164201526875</v>
+      </c>
+      <c r="Z7">
+        <v>0.5351846399503438</v>
+      </c>
+      <c r="AA7">
+        <v>1.024155061315161</v>
+      </c>
+      <c r="AB7">
+        <v>0.0333029135073506</v>
+      </c>
+      <c r="AC7">
+        <v>0.04784159025676267</v>
+      </c>
+      <c r="AD7">
+        <v>0.04708674135899893</v>
+      </c>
+      <c r="AE7">
+        <v>0.05685462721387976</v>
+      </c>
+      <c r="AF7">
+        <v>-0.02616051304666231</v>
+      </c>
+      <c r="AG7">
+        <v>-0.1147170492852172</v>
+      </c>
+      <c r="AH7">
+        <v>0.2929439845051983</v>
+      </c>
+      <c r="AI7">
+        <v>0.04727254296278853</v>
+      </c>
+      <c r="AJ7">
+        <v>0.01696571212028748</v>
+      </c>
+      <c r="AK7">
+        <v>0.02237573916783739</v>
+      </c>
+      <c r="AL7">
+        <v>0.02351205143548536</v>
+      </c>
+      <c r="AM7">
+        <v>0.02660336895172749</v>
+      </c>
     </row>
-    <row r="8" spans="1:23">
+    <row r="8" spans="1:39">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1176,8 +1560,56 @@
       <c r="W8">
         <v>0.04621585610112355</v>
       </c>
+      <c r="X8">
+        <v>0.2898221083226984</v>
+      </c>
+      <c r="Y8">
+        <v>0.7950592473770783</v>
+      </c>
+      <c r="Z8">
+        <v>0.6709124312357876</v>
+      </c>
+      <c r="AA8">
+        <v>1.039470983394997</v>
+      </c>
+      <c r="AB8">
+        <v>0.04267509971700443</v>
+      </c>
+      <c r="AC8">
+        <v>0.05953358931353882</v>
+      </c>
+      <c r="AD8">
+        <v>0.06049759400005788</v>
+      </c>
+      <c r="AE8">
+        <v>0.0719132286864952</v>
+      </c>
+      <c r="AF8">
+        <v>0.1474232957356426</v>
+      </c>
+      <c r="AG8">
+        <v>-0.1251682279656451</v>
+      </c>
+      <c r="AH8">
+        <v>0.1833512926159607</v>
+      </c>
+      <c r="AI8">
+        <v>0.07221634958947591</v>
+      </c>
+      <c r="AJ8">
+        <v>0.01418438477117493</v>
+      </c>
+      <c r="AK8">
+        <v>0.01862511593359674</v>
+      </c>
+      <c r="AL8">
+        <v>0.01944391160584168</v>
+      </c>
+      <c r="AM8">
+        <v>0.02214296285325055</v>
+      </c>
     </row>
-    <row r="9" spans="1:23">
+    <row r="9" spans="1:39">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1247,8 +1679,56 @@
       <c r="W9">
         <v>0.3567085585770662</v>
       </c>
+      <c r="X9">
+        <v>0.2095660992779006</v>
+      </c>
+      <c r="Y9">
+        <v>0.9172839685127551</v>
+      </c>
+      <c r="Z9">
+        <v>0.3763507309053348</v>
+      </c>
+      <c r="AA9">
+        <v>1.088785708233849</v>
+      </c>
+      <c r="AB9">
+        <v>0.04305288559505391</v>
+      </c>
+      <c r="AC9">
+        <v>0.06199677647381171</v>
+      </c>
+      <c r="AD9">
+        <v>0.0594772747513039</v>
+      </c>
+      <c r="AE9">
+        <v>0.07377963931470817</v>
+      </c>
+      <c r="AF9">
+        <v>0.179677026943932</v>
+      </c>
+      <c r="AG9">
+        <v>-0.1385520602697954</v>
+      </c>
+      <c r="AH9">
+        <v>0.001118194192661183</v>
+      </c>
+      <c r="AI9">
+        <v>0.04545505040366168</v>
+      </c>
+      <c r="AJ9">
+        <v>0.01303327920338582</v>
+      </c>
+      <c r="AK9">
+        <v>0.01708116411452447</v>
+      </c>
+      <c r="AL9">
+        <v>0.01775228744296523</v>
+      </c>
+      <c r="AM9">
+        <v>0.02029220588344172</v>
+      </c>
     </row>
-    <row r="10" spans="1:23">
+    <row r="10" spans="1:39">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1318,8 +1798,56 @@
       <c r="W10">
         <v>0.2837482939145708</v>
       </c>
+      <c r="X10">
+        <v>-0.1324571673700495</v>
+      </c>
+      <c r="Y10">
+        <v>0.8584230145577452</v>
+      </c>
+      <c r="Z10">
+        <v>-0.2437985568431947</v>
+      </c>
+      <c r="AA10">
+        <v>1.036059361707391</v>
+      </c>
+      <c r="AB10">
+        <v>0.02870876315344539</v>
+      </c>
+      <c r="AC10">
+        <v>0.04111737002686834</v>
+      </c>
+      <c r="AD10">
+        <v>0.03951198870046486</v>
+      </c>
+      <c r="AE10">
+        <v>0.04906789163759256</v>
+      </c>
+      <c r="AF10">
+        <v>-0.04476612679253632</v>
+      </c>
+      <c r="AG10">
+        <v>-0.150439566327175</v>
+      </c>
+      <c r="AH10">
+        <v>-0.1064674594192832</v>
+      </c>
+      <c r="AI10">
+        <v>0.03202639736560783</v>
+      </c>
+      <c r="AJ10">
+        <v>0.01362878949803541</v>
+      </c>
+      <c r="AK10">
+        <v>0.01799149812440456</v>
+      </c>
+      <c r="AL10">
+        <v>0.01871552431876865</v>
+      </c>
+      <c r="AM10">
+        <v>0.02136209762344828</v>
+      </c>
     </row>
-    <row r="11" spans="1:23">
+    <row r="11" spans="1:39">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1389,8 +1917,56 @@
       <c r="W11">
         <v>-0.04104405195299765</v>
       </c>
+      <c r="X11">
+        <v>-0.3704204490349135</v>
+      </c>
+      <c r="Y11">
+        <v>0.7421500673107432</v>
+      </c>
+      <c r="Z11">
+        <v>-0.4556600951544652</v>
+      </c>
+      <c r="AA11">
+        <v>1.036943461264211</v>
+      </c>
+      <c r="AB11">
+        <v>0.03024086422810601</v>
+      </c>
+      <c r="AC11">
+        <v>0.0413244627582933</v>
+      </c>
+      <c r="AD11">
+        <v>0.04125154092293516</v>
+      </c>
+      <c r="AE11">
+        <v>0.05035845253129417</v>
+      </c>
+      <c r="AF11">
+        <v>-0.2529496981869608</v>
+      </c>
+      <c r="AG11">
+        <v>-0.1667546729909404</v>
+      </c>
+      <c r="AH11">
+        <v>-0.004575388411390203</v>
+      </c>
+      <c r="AI11">
+        <v>-0.005532042724045593</v>
+      </c>
+      <c r="AJ11">
+        <v>0.02149274917820489</v>
+      </c>
+      <c r="AK11">
+        <v>0.02800212487672342</v>
+      </c>
+      <c r="AL11">
+        <v>0.02906995337308669</v>
+      </c>
+      <c r="AM11">
+        <v>0.03322282162869005</v>
+      </c>
     </row>
-    <row r="12" spans="1:23">
+    <row r="12" spans="1:39">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1459,6 +2035,54 @@
       </c>
       <c r="W12">
         <v>-0.3487110760417703</v>
+      </c>
+      <c r="X12">
+        <v>-0.3117952286362083</v>
+      </c>
+      <c r="Y12">
+        <v>0.778650669527331</v>
+      </c>
+      <c r="Z12">
+        <v>-0.1862005118335083</v>
+      </c>
+      <c r="AA12">
+        <v>1.012167361389565</v>
+      </c>
+      <c r="AB12">
+        <v>0.03746964477947432</v>
+      </c>
+      <c r="AC12">
+        <v>0.0519707585946367</v>
+      </c>
+      <c r="AD12">
+        <v>0.05052220604255942</v>
+      </c>
+      <c r="AE12">
+        <v>0.06268878667148603</v>
+      </c>
+      <c r="AF12">
+        <v>-0.3147686271899816</v>
+      </c>
+      <c r="AG12">
+        <v>-0.134772354096588</v>
+      </c>
+      <c r="AH12">
+        <v>0.1396426286924229</v>
+      </c>
+      <c r="AI12">
+        <v>-0.007470494473802007</v>
+      </c>
+      <c r="AJ12">
+        <v>0.01786959762221647</v>
+      </c>
+      <c r="AK12">
+        <v>0.02307511361346789</v>
+      </c>
+      <c r="AL12">
+        <v>0.02404114830182371</v>
+      </c>
+      <c r="AM12">
+        <v>0.02741154826690088</v>
       </c>
     </row>
   </sheetData>
@@ -1476,172 +2100,172 @@
   <sheetData>
     <row r="1" spans="1:57">
       <c r="B1" s="1" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>39</v>
+        <v>55</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>47</v>
+        <v>63</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>48</v>
+        <v>64</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>50</v>
+        <v>66</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>52</v>
+        <v>68</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>53</v>
+        <v>69</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>55</v>
+        <v>71</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>56</v>
+        <v>72</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>57</v>
+        <v>73</v>
       </c>
       <c r="AL1" s="1" t="s">
-        <v>58</v>
+        <v>74</v>
       </c>
       <c r="AM1" s="1" t="s">
-        <v>59</v>
+        <v>75</v>
       </c>
       <c r="AN1" s="1" t="s">
-        <v>60</v>
+        <v>76</v>
       </c>
       <c r="AO1" s="1" t="s">
-        <v>61</v>
+        <v>77</v>
       </c>
       <c r="AP1" s="1" t="s">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="AQ1" s="1" t="s">
-        <v>63</v>
+        <v>79</v>
       </c>
       <c r="AR1" s="1" t="s">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="AS1" s="1" t="s">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="AT1" s="1" t="s">
-        <v>66</v>
+        <v>82</v>
       </c>
       <c r="AU1" s="1" t="s">
-        <v>67</v>
+        <v>83</v>
       </c>
       <c r="AV1" s="1" t="s">
-        <v>68</v>
+        <v>84</v>
       </c>
       <c r="AW1" s="1" t="s">
-        <v>69</v>
+        <v>85</v>
       </c>
       <c r="AX1" s="1" t="s">
-        <v>70</v>
+        <v>86</v>
       </c>
       <c r="AY1" s="1" t="s">
-        <v>71</v>
+        <v>87</v>
       </c>
       <c r="AZ1" s="1" t="s">
-        <v>72</v>
+        <v>88</v>
       </c>
       <c r="BA1" s="1" t="s">
-        <v>73</v>
+        <v>89</v>
       </c>
       <c r="BB1" s="1" t="s">
-        <v>74</v>
+        <v>90</v>
       </c>
       <c r="BC1" s="1" t="s">
-        <v>75</v>
+        <v>91</v>
       </c>
       <c r="BD1" s="1" t="s">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="BE1" s="1" t="s">
-        <v>77</v>
+        <v>93</v>
       </c>
     </row>
     <row r="2" spans="1:57">
